--- a/資料.xlsx
+++ b/資料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056D9997-423D-4244-961B-49C0C67A4D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA84C5C-8D5B-46A5-A6D8-7B81F74D78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AEF062AA-A635-48B1-8D52-7A613F9B3306}"/>
+    <workbookView xWindow="3150" yWindow="3675" windowWidth="17760" windowHeight="13635" xr2:uid="{AEF062AA-A635-48B1-8D52-7A613F9B3306}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>type</t>
   </si>
@@ -192,6 +192,178 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一把普通的衝鋒槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鮮紅匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廚房裡的菜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖哩棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海賊短刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克萊柏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哨兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長弓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龍偃月刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超大的螺絲起子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銀盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑲了金的銀盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鑲了銅的金盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金龜甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錫盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>經費不足的銀盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺你一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺你好多下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敗血症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉完忘記滅火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林大火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊枝甘露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬多精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙術查克拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小吸一口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸一口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大吸兩口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸死你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我加了大麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠色怪獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒氣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA81E3A4-F95A-4948-87E3-E5FB5A6B66C7}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -569,7 +741,7 @@
     <col min="5" max="5" width="89.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -582,8 +754,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -600,8 +775,11 @@
         <f>"INSERT INTO card(ID,type,DATA,src) VALUES(" &amp;A2 &amp;"," &amp; B2 &amp; "," &amp;C2 &amp; ",'" &amp; D2 &amp; "');"</f>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(1,1,6,'/card/atk/atk_0.png');</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -618,8 +796,11 @@
         <f>"INSERT INTO card(ID,type,DATA,src) VALUES(" &amp;A3 &amp;"," &amp; B3 &amp; "," &amp;C3 &amp; ",'" &amp; D3 &amp; "');"</f>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(2,1,3,'/card/atk/atk_1.png');</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -636,8 +817,11 @@
         <f t="shared" ref="E4:E50" si="0">"INSERT INTO card(ID,type,DATA,src) VALUES(" &amp;A4 &amp;"," &amp; B4 &amp; "," &amp;C4 &amp; ",'" &amp; D4 &amp; "');"</f>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(3,1,3,'/card/atk/atk_2.png');</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -654,8 +838,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(4,1,8,'/card/atk/atk_3.png');</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -672,8 +859,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(5,1,2,'/card/atk/atk_4.png');</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -681,17 +871,20 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO card(ID,type,DATA,src) VALUES(6,1,7,'/card/atk/atk_5.png');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>INSERT INTO card(ID,type,DATA,src) VALUES(6,1,4,'/card/atk/atk_5.png');</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -708,8 +901,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(7,1,12,'/card/atk/atk_6.png');</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -726,8 +922,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(8,1,2,'/card/atk/atk_7.png');</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -744,8 +943,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(9,1,7,'/card/atk/atk_8.png');</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -762,8 +964,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(10,1,10,'/card/atk/atk_9.png');</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -780,8 +985,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(11,1,12,'/card/atk/atk_10.png');</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -798,8 +1006,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(12,1,8,'/card/atk/atk_11.png');</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -816,8 +1027,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(13,1,6,'/card/atk/atk_12.png');</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -834,8 +1048,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(14,1,5,'/card/atk/atk_13.png');</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -852,8 +1069,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(15,1,8,'/card/atk/atk_14.png');</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -870,8 +1090,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(16,2,8,'/card/def/def_0.png');</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -888,8 +1111,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(17,2,2,'/card/def/def_1.png');</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -906,8 +1132,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(18,2,7,'/card/def/def_2.png');</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -924,8 +1153,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(19,2,10,'/card/def/def_3.png');</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -942,8 +1174,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(20,2,11,'/card/def/def_4.png');</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -960,8 +1195,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(21,2,6,'/card/def/def_5.png');</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -978,8 +1216,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(22,2,9,'/card/def/def_6.png');</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -987,17 +1228,20 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO card(ID,type,DATA,src) VALUES(23,2,10,'/card/def/def_7.png');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>INSERT INTO card(ID,type,DATA,src) VALUES(23,2,8,'/card/def/def_7.png');</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1014,8 +1258,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(24,2,6,'/card/def/def_8.png');</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1032,8 +1279,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(25,2,3,'/card/def/def_9.png');</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1050,8 +1300,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(26,2,3,'/card/def/def_10.png');</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1068,8 +1321,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(27,2,2,'/card/def/def_11.png');</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1086,8 +1342,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(28,2,4,'/card/def/def_12.png');</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1104,8 +1363,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(29,2,8,'/card/def/def_13.png');</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1122,8 +1384,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(30,2,7,'/card/def/def_14.png');</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1140,8 +1405,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(31,3,1,'/card/eff/fire/eff_fire_0.png');</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1158,8 +1426,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(32,3,2,'/card/eff/fire/eff_fire_1.png');</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1176,8 +1447,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(33,3,2,'/card/eff/fire/eff_fire_2.png');</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1194,8 +1468,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(34,4,0,'/card/eff/invincible/eff_invincible_1.png');</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1212,8 +1489,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(35,5,0,'/card/eff/purify/eff_purify_1.png');</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1230,8 +1510,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(36,3,1,'/card/eff/bloodloss/eff_booldloss_1.png');</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1248,8 +1531,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(37,3,2,'/card/eff/bloodloss/eff_booldloss_2.png');</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1266,8 +1552,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(38,3,2,'/card/eff/bloodloss/eff_booldloss_3.png');</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1284,8 +1573,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(39,6,4,'/card/eff/lifesteal/eff_lifesteal_0.png');</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1302,8 +1594,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(40,6,6,'/card/eff/lifesteal/eff_lifesteal_1.png');</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1320,8 +1615,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(41,6,8,'/card/eff/lifesteal/eff_lifesteal_2.png');</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1338,8 +1636,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(42,6,4,'/card/eff/lifesteal/eff_lifesteal_3.png');</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1356,8 +1657,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(43,6,10,'/card/eff/lifesteal/eff_lifesteal_4.png');</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1374,8 +1678,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(44,6,6,'/card/eff/lifesteal/eff_lifesteal_5.png');</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1392,8 +1699,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(45,3,1,'/card/eff/poison/eff_poison_0.png');</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1410,8 +1720,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(46,3,2,'/card/eff/poison/eff_poison_1.png');</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1428,8 +1741,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(47,5,0,'/card/eff/purify/eff_purify_4.png');</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1446,8 +1762,11 @@
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(48,5,0,'/card/eff/purify/eff_purify_3.png');</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1463,6 +1782,9 @@
       <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO card(ID,type,DATA,src) VALUES(49,3,2,'/card/eff/poison/eff_poison_4.png');</v>
+      </c>
+      <c r="F50" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
